--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T21:48:09+01:00</t>
+    <t>2023-11-27T12:35:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T12:35:55+01:00</t>
+    <t>2023-12-04T09:08:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T09:08:22+01:00</t>
+    <t>2023-12-07T13:24:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T13:24:46+01:00</t>
+    <t>2023-12-07T15:19:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:19:19+01:00</t>
+    <t>2023-12-08T09:35:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from ContactPointSyst" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from ContactPointSyst" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T09:35:25+01:00</t>
+    <t>2023-12-08T12:58:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes for virtual service connection types. Any other codes or codesystem should be added to this valueSet</t>
+    <t>Codes for virtual service connection types. Any other codes or codesystem should be added to this valueSet. Currently only one code from http://hl7.org/fhir/contact-point-system</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -94,19 +93,16 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>System URI</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.840.1.113883.4.642.4.1809</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/contact-point-system</t>
@@ -382,11 +378,17 @@
       <c r="A1" t="s" s="1">
         <v>26</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -402,49 +404,6 @@
       </c>
       <c r="B4" t="s" s="2">
         <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T12:58:44+01:00</t>
+    <t>2023-12-08T15:31:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
   <si>
     <t/>
@@ -364,7 +370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -395,15 +401,23 @@
         <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T15:31:30+01:00</t>
+    <t>2023-12-13T23:52:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T23:52:19+01:00</t>
+    <t>2023-12-15T20:08:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T20:08:30+01:00</t>
+    <t>2023-12-19T12:28:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T12:28:54+01:00</t>
+    <t>2023-12-21T10:30:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T10:30:52+01:00</t>
+    <t>2024-01-15T07:10:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T07:10:14+01:00</t>
+    <t>2024-01-16T01:49:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:49:14+01:00</t>
+    <t>2024-02-09T14:16:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T14:16:42+01:00</t>
+    <t>2024-06-01T10:49:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from ContactPointSyst" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T10:49:22+02:00</t>
+    <t>2025-01-31T12:01:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Example Publisher (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -103,9 +109,6 @@
   </si>
   <si>
     <t>Phone</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -245,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -347,20 +350,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -382,15 +393,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>2</v>
@@ -398,26 +409,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T12:01:35+01:00</t>
+    <t>2025-01-31T15:15:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:15:59+01:00</t>
+    <t>2025-01-31T16:07:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:07:19+01:00</t>
+    <t>2025-02-01T23:53:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:53:20+01:00</t>
+    <t>2025-02-15T12:00:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
+++ b/ValueSet-hn-basis-virtual-service-type.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-15T12:00:41+01:00</t>
+    <t>2025-06-05T14:31:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
